--- a/Stocks/BAJAJHLDNG.xlsx
+++ b/Stocks/BAJAJHLDNG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>2082.2999999999997</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2402.0457611121601</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2332.5602788717601</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>64.559899045575662</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>44.899999999999636</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2265.8650773796953</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>69.736251146824543</v>
       </c>
       <c r="Y67">
         <v>55.784635161569476</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2784</v>
+      </c>
+      <c r="D83">
+        <v>2870</v>
+      </c>
+      <c r="E83">
+        <v>2760.05</v>
+      </c>
+      <c r="F83">
+        <v>2865</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2831.6833333333329</v>
+      </c>
+      <c r="H83">
+        <v>2756.3833050398935</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>2713.1274168530049</v>
+      </c>
+      <c r="K83">
+        <v>2615.1598601593214</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>90.518999444619865</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>104.94999999999982</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>109.94999999999982</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.95452478399272389</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>2642.6182185934636</v>
+      </c>
+      <c r="W83">
+        <v>2521.2766347973161</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>121.34158379614746</v>
+      </c>
+      <c r="Y83">
+        <v>102.26202134801035</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="35"/>
+        <v>2772.6000000000004</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="36"/>
+        <v>2802.05</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" si="37"/>
+        <v>2815.05</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="38"/>
+        <v>2828</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2834.05</v>
+      </c>
+      <c r="D84">
+        <v>2998</v>
+      </c>
+      <c r="E84">
+        <v>2834.05</v>
+      </c>
+      <c r="F84">
+        <v>2955</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2929.0166666666664</v>
+      </c>
+      <c r="H84">
+        <v>2842.6999858532799</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>2776.4324353301149</v>
+      </c>
+      <c r="K84">
+        <v>2663.80211345725</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>93.172183215738528</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>120.94999999999982</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>163.94999999999982</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.73772491613296709</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>2690.6769541944691</v>
+      </c>
+      <c r="W84">
+        <v>2553.4042914789966</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>137.27266271547251</v>
+      </c>
+      <c r="Y84">
+        <v>109.26414962150278</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2970.15</v>
+      </c>
+      <c r="D85">
+        <v>3000.3</v>
+      </c>
+      <c r="E85">
+        <v>2934</v>
+      </c>
+      <c r="F85">
+        <v>2972</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2968.7666666666664</v>
+      </c>
+      <c r="H85">
+        <v>2905.7333262599732</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>2826.1807830345338</v>
+      </c>
+      <c r="K85">
+        <v>2723.8460882445279</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>93.595362261695868</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>66.300000000000182</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.57315233785821862</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>2733.9574227799353</v>
+      </c>
+      <c r="W85">
+        <v>2584.4113809990708</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>149.54604178086447</v>
+      </c>
+      <c r="Y85">
+        <v>117.32052805337511</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2962.15</v>
+      </c>
+      <c r="D86">
+        <v>2975</v>
+      </c>
+      <c r="E86">
+        <v>2890</v>
+      </c>
+      <c r="F86">
+        <v>2919.95</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2928.3166666666671</v>
+      </c>
+      <c r="H86">
+        <v>2917.0249964633203</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>2859.2517201379706</v>
+      </c>
+      <c r="K86">
+        <v>2760.7691797457437</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>75.650640425250643</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>29.949999999999818</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>85</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.35235294117646843</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>2762.5716654291759</v>
+      </c>
+      <c r="W86">
+        <v>2609.2660935176582</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>153.30557191151775</v>
+      </c>
+      <c r="Y86">
+        <v>124.51753682500365</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2876.15</v>
+      </c>
+      <c r="D87">
+        <v>2963.65</v>
+      </c>
+      <c r="E87">
+        <v>2876.15</v>
+      </c>
+      <c r="F87">
+        <v>2900</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2913.2666666666664</v>
+      </c>
+      <c r="H87">
+        <v>2915.1458315649934</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>2882.4513378850884</v>
+      </c>
+      <c r="K87">
+        <v>2786.4093620244676</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>69.286185265647504</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>23.849999999999909</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>87.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.27257142857142752</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>2783.7144861323795</v>
+      </c>
+      <c r="W87">
+        <v>2630.801938442276</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>152.91254769010357</v>
+      </c>
+      <c r="Y87">
+        <v>130.19653899802364</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2900</v>
+      </c>
+      <c r="D88">
+        <v>2937.75</v>
+      </c>
+      <c r="E88">
+        <v>2820.15</v>
+      </c>
+      <c r="F88">
+        <v>2825</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2860.9666666666667</v>
+      </c>
+      <c r="H88">
+        <v>2888.0562491158298</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>2894.73992946618</v>
+      </c>
+      <c r="K88">
+        <v>2793.9072815745858</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>49.655211763398007</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.8499999999999091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>117.59999999999991</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>4.1241496598638717E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>2790.0661036504748</v>
+      </c>
+      <c r="W88">
+        <v>2645.1869800391446</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>144.87912361133021</v>
+      </c>
+      <c r="Y88">
+        <v>133.13305592068497</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2845</v>
+      </c>
+      <c r="D89">
+        <v>2855</v>
+      </c>
+      <c r="E89">
+        <v>2800.05</v>
+      </c>
+      <c r="F89">
+        <v>2824</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2826.35</v>
+      </c>
+      <c r="H89">
+        <v>2857.2031245579146</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>2885.908834029251</v>
+      </c>
+      <c r="K89">
+        <v>2795.2723301135666</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>49.421832224338665</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>23.949999999999818</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>54.949999999999818</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.43585077343038942</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2795.2867030888633</v>
+      </c>
+      <c r="W89">
+        <v>2658.4323889251341</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>136.85431416372921</v>
+      </c>
+      <c r="Y89">
+        <v>133.87730756929381</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2809.9</v>
+      </c>
+      <c r="D90">
+        <v>2809.9</v>
+      </c>
+      <c r="E90">
+        <v>2759.35</v>
+      </c>
+      <c r="F90">
+        <v>2769.8</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2779.6833333333329</v>
+      </c>
+      <c r="H90">
+        <v>2818.4432289456236</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>2869.0179820227509</v>
+      </c>
+      <c r="K90">
+        <v>2787.2895900883295</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>37.485507317919428</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>10.450000000000273</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>50.550000000000182</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.20672601384768022</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>2791.3656718444226</v>
+      </c>
+      <c r="W90">
+        <v>2666.6818415973462</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>124.68383024707646</v>
+      </c>
+      <c r="Y90">
+        <v>132.03861210485033</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2790</v>
+      </c>
+      <c r="D91">
+        <v>2916.95</v>
+      </c>
+      <c r="E91">
+        <v>2750</v>
+      </c>
+      <c r="F91">
+        <v>2809</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2825.3166666666671</v>
+      </c>
+      <c r="H91">
+        <v>2821.8799478061455</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>2879.6695415732506</v>
+      </c>
+      <c r="K91">
+        <v>2779.003014513145</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>48.689119147677928</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>166.94999999999982</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.35339922132375001</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>2794.0786454068193</v>
+      </c>
+      <c r="W91">
+        <v>2677.2239274049502</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>116.85471800186906</v>
+      </c>
+      <c r="Y91">
+        <v>129.00183328425408</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2848.85</v>
+      </c>
+      <c r="D92">
+        <v>2861.95</v>
+      </c>
+      <c r="E92">
+        <v>2770</v>
+      </c>
+      <c r="F92">
+        <v>2795</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2808.9833333333336</v>
+      </c>
+      <c r="H92">
+        <v>2815.4316405697396</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2875.7318656680836</v>
+      </c>
+      <c r="K92">
+        <v>2777.0023446213349</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>45.082215241417479</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>91.949999999999818</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.27188689505165903</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>2794.2203922673089</v>
+      </c>
+      <c r="W92">
+        <v>2685.9480809305096</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>108.27231133679925</v>
+      </c>
+      <c r="Y92">
+        <v>124.85592889476311</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2803.7</v>
+      </c>
+      <c r="D93">
+        <v>2825</v>
+      </c>
+      <c r="E93">
+        <v>2774.3</v>
+      </c>
+      <c r="F93">
+        <v>2799</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2799.4333333333329</v>
+      </c>
+      <c r="H93">
+        <v>2807.4324869515362</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>2864.4581177418427</v>
+      </c>
+      <c r="K93">
+        <v>2776.4018235943718</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>46.497737716333518</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>24.699999999999818</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>50.699999999999818</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.48717948717948534</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>2794.9557165338765</v>
+      </c>
+      <c r="W93">
+        <v>2694.3222971578793</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>100.63341937599716</v>
+      </c>
+      <c r="Y93">
+        <v>120.01142699100993</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2825</v>
+      </c>
+      <c r="D94">
+        <v>2850.5</v>
+      </c>
+      <c r="E94">
+        <v>2756.15</v>
+      </c>
+      <c r="F94">
+        <v>2795.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2800.6</v>
+      </c>
+      <c r="H94">
+        <v>2804.0162434757681</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>2861.356313799211</v>
+      </c>
+      <c r="K94">
+        <v>2771.9014183511781</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>45.099171374168009</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>39</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>94.349999999999909</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.4133545310015902</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>2794.9856062978956</v>
+      </c>
+      <c r="W94">
+        <v>2701.7910158869254</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>93.19459041097025</v>
+      </c>
+      <c r="Y94">
+        <v>114.64805967500199</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2800</v>
+      </c>
+      <c r="D95">
+        <v>2835</v>
+      </c>
+      <c r="E95">
+        <v>2761.15</v>
+      </c>
+      <c r="F95">
+        <v>2772</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2789.3833333333332</v>
+      </c>
+      <c r="H95">
+        <v>2796.6997884045504</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>2855.499355177164</v>
+      </c>
+      <c r="K95">
+        <v>2769.5122142731384</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>36.783386617325789</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>10.849999999999909</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>73.849999999999909</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.14691943127961979</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>2791.4493591751425</v>
+      </c>
+      <c r="W95">
+        <v>2706.9916813767827</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>84.457677798359782</v>
+      </c>
+      <c r="Y95">
+        <v>108.60998329967354</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2778</v>
+      </c>
+      <c r="D96">
+        <v>2804.9</v>
+      </c>
+      <c r="E96">
+        <v>2743.5</v>
+      </c>
+      <c r="F96">
+        <v>2753.95</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2767.4499999999994</v>
+      </c>
+      <c r="H96">
+        <v>2782.0748942022747</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>2844.255054026683</v>
+      </c>
+      <c r="K96">
+        <v>2763.7317222124411</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>31.180039116699739</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>10.449999999999818</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>61.400000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.17019543973941045</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>2785.6802269943514</v>
+      </c>
+      <c r="W96">
+        <v>2710.4700753488728</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>75.210151645478618</v>
+      </c>
+      <c r="Y96">
+        <v>101.93001696883456</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2763</v>
+      </c>
+      <c r="D97">
+        <v>2785.9</v>
+      </c>
+      <c r="E97">
+        <v>2701.1</v>
+      </c>
+      <c r="F97">
+        <v>2701.25</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2729.4166666666665</v>
+      </c>
+      <c r="H97">
+        <v>2755.7457804344704</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>2831.2872642429757</v>
+      </c>
+      <c r="K97">
+        <v>2749.8135617207877</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>20.039171248324763</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0.15000000000009095</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>84.800000000000182</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>1.7688679245293705E-3</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>2772.6909613029129</v>
+      </c>
+      <c r="W97">
+        <v>2709.787106804512</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>62.90385449840096</v>
+      </c>
+      <c r="Y97">
+        <v>94.124784474747841</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>2732</v>
+      </c>
+      <c r="D98">
+        <v>2840</v>
+      </c>
+      <c r="E98">
+        <v>2710</v>
+      </c>
+      <c r="F98">
+        <v>2825</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>2791.6666666666665</v>
+      </c>
+      <c r="H98">
+        <v>2773.7062235505682</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>2833.2234277445368</v>
+      </c>
+      <c r="K98">
+        <v>2740.9661035606127</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>60.971609478995269</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>115</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>2780.7385057178494</v>
+      </c>
+      <c r="W98">
+        <v>2718.3213951893631</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>62.417110528486319</v>
+      </c>
+      <c r="Y98">
+        <v>87.783249685495534</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>2827.5</v>
+      </c>
+      <c r="D99">
+        <v>2878</v>
+      </c>
+      <c r="E99">
+        <v>2821.2</v>
+      </c>
+      <c r="F99">
+        <v>2876.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>2858.7166666666667</v>
+      </c>
+      <c r="H99">
+        <v>2816.2114451086172</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>2843.1737771346397</v>
+      </c>
+      <c r="K99">
+        <v>2758.795858324921</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>69.235589872181905</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>55.75</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>56.800000000000182</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.98151408450703914</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>2795.5402740689497</v>
+      </c>
+      <c r="W99">
+        <v>2730.0716622123732</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>65.468611856576445</v>
+      </c>
+      <c r="Y99">
+        <v>83.320322119711719</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>2885</v>
+      </c>
+      <c r="D100">
+        <v>2900.05</v>
+      </c>
+      <c r="E100">
+        <v>2795</v>
+      </c>
+      <c r="F100">
+        <v>2806.85</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>2833.9666666666667</v>
+      </c>
+      <c r="H100">
+        <v>2825.0890558876417</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>2855.8129377713867</v>
+      </c>
+      <c r="K100">
+        <v>2766.841223141605</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>51.015415053002158</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>11.849999999999909</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>105.05000000000018</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.11280342693955153</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>2797.2802319044958</v>
+      </c>
+      <c r="W100">
+        <v>2735.7589464929383</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>61.521285411557528</v>
+      </c>
+      <c r="Y100">
+        <v>78.960514778080878</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>2825.8</v>
+      </c>
+      <c r="D101">
+        <v>2830</v>
+      </c>
+      <c r="E101">
+        <v>2758</v>
+      </c>
+      <c r="F101">
+        <v>2777.05</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>2788.35</v>
+      </c>
+      <c r="H101">
+        <v>2806.719527943821</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>2850.0767293777453</v>
+      </c>
+      <c r="K101">
+        <v>2764.8765068879152</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>44.756645882850634</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>19.050000000000182</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.26458333333333584</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>2794.1678885345736</v>
+      </c>
+      <c r="W101">
+        <v>2738.8175430490169</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>55.350345485556772</v>
+      </c>
+      <c r="Y101">
+        <v>74.238480919576062</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>2798.65</v>
+      </c>
+      <c r="D102">
+        <v>2798.65</v>
+      </c>
+      <c r="E102">
+        <v>2675.5</v>
+      </c>
+      <c r="F102">
+        <v>2678</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>2717.3833333333332</v>
+      </c>
+      <c r="H102">
+        <v>2762.0514306385771</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>2838.648567293802</v>
+      </c>
+      <c r="K102">
+        <v>2745.0150609128227</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>29.645566367370176</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>123.15000000000009</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>2.0300446609825402E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>2776.295905683101</v>
+      </c>
+      <c r="W102">
+        <v>2734.312539860201</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>41.983365822899941</v>
+      </c>
+      <c r="Y102">
+        <v>67.787457900240838</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>2675</v>
+      </c>
+      <c r="D103">
+        <v>2748</v>
+      </c>
+      <c r="E103">
+        <v>2586</v>
+      </c>
+      <c r="F103">
+        <v>2710.05</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>2681.35</v>
+      </c>
+      <c r="H103">
+        <v>2721.7007153192885</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>2818.5044412285129</v>
+      </c>
+      <c r="K103">
+        <v>2709.6783807099732</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>38.098760975417747</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>124.05000000000018</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>162</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.76574074074074183</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>2766.1042278857008</v>
+      </c>
+      <c r="W103">
+        <v>2732.5153146853713</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>33.588913200329443</v>
+      </c>
+      <c r="Y103">
+        <v>60.947748960258558</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>2700</v>
+      </c>
+      <c r="D104">
+        <v>2765.95</v>
+      </c>
+      <c r="E104">
+        <v>2665</v>
+      </c>
+      <c r="F104">
+        <v>2690.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>2707.15</v>
+      </c>
+      <c r="H104">
+        <v>2714.4253576596443</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>2806.8256765110655</v>
+      </c>
+      <c r="K104">
+        <v>2699.7498516633127</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>34.901337174710044</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>25.5</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>100.94999999999982</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.25260029717682064</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>2754.4728082109777</v>
+      </c>
+      <c r="W104">
+        <v>2729.4030691531216</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>25.069739057856168</v>
+      </c>
+      <c r="Y104">
+        <v>53.772146979778078</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
